--- a/data/trans_camb/P23_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Clase-trans_camb.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 8,12</t>
+          <t>-5,02; 8,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,01; -0,32</t>
+          <t>-12,96; -0,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 8,64</t>
+          <t>-5,65; 9,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,37; -4,56</t>
+          <t>-17,59; -4,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 6,47</t>
+          <t>-3,18; 6,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,33; -3,98</t>
+          <t>-13,14; -3,83</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 28,59</t>
+          <t>-14,05; 28,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,95; -1,11</t>
+          <t>-36,64; -1,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 32,34</t>
+          <t>-17,44; 34,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,36; -16,62</t>
+          <t>-51,75; -12,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 22,0</t>
+          <t>-9,69; 22,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,66; -14,03</t>
+          <t>-39,08; -12,82</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 6,3</t>
+          <t>-8,09; 6,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,68; -1,42</t>
+          <t>-16,06; -1,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 8,76</t>
+          <t>-5,59; 8,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,88; -1,99</t>
+          <t>-15,22; -1,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 5,19</t>
+          <t>-4,88; 5,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,63; -3,95</t>
+          <t>-14,08; -3,76</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 19,41</t>
+          <t>-19,85; 21,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,09; -4,24</t>
+          <t>-39,09; -4,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 26,39</t>
+          <t>-14,07; 27,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,11; -5,64</t>
+          <t>-38,82; -5,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 15,28</t>
+          <t>-12,49; 16,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,73; -11,25</t>
+          <t>-36,36; -11,11</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 1,85</t>
+          <t>-9,71; 1,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 0,62</t>
+          <t>-11,57; 0,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 13,44</t>
+          <t>-3,69; 14,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 14,9</t>
+          <t>-5,96; 13,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 2,45</t>
+          <t>-7,37; 2,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 2,12</t>
+          <t>-8,93; 1,67</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 4,44</t>
+          <t>-19,08; 4,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 1,64</t>
+          <t>-23,1; 1,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 59,43</t>
+          <t>-11,65; 64,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 66,01</t>
+          <t>-18,83; 59,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 5,99</t>
+          <t>-16,21; 7,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 5,31</t>
+          <t>-19,79; 4,1</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 1,63</t>
+          <t>-6,82; 1,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,74; -3,85</t>
+          <t>-11,28; -3,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 8,41</t>
+          <t>-1,24; 8,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 8,97</t>
+          <t>-0,07; 9,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 2,62</t>
+          <t>-3,71; 2,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 0,08</t>
+          <t>-6,17; 0,21</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 3,8</t>
+          <t>-14,47; 3,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,5; -8,78</t>
+          <t>-23,87; -7,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 26,99</t>
+          <t>-3,49; 27,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 28,22</t>
+          <t>-0,44; 31,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 6,56</t>
+          <t>-8,55; 7,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 0,18</t>
+          <t>-14,35; 0,58</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,66; -4,15</t>
+          <t>-17,95; -3,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-21,36; -8,06</t>
+          <t>-21,54; -8,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 1,75</t>
+          <t>-9,08; 1,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 2,35</t>
+          <t>-7,74; 2,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,22; -1,56</t>
+          <t>-10,27; -1,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,48; -2,27</t>
+          <t>-10,87; -2,04</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-31,14; -8,25</t>
+          <t>-30,89; -7,73</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-36,55; -16,26</t>
+          <t>-37,16; -16,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,36; 5,93</t>
+          <t>-25,44; 5,87</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 8,38</t>
+          <t>-21,77; 10,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,9; -3,76</t>
+          <t>-24,33; -4,63</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-24,47; -6,23</t>
+          <t>-25,13; -5,15</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 1,48</t>
+          <t>-13,07; 1,15</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 2,85</t>
+          <t>-11,18; 3,17</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 3,93</t>
+          <t>-1,72; 4,18</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 5,36</t>
+          <t>-0,3; 5,5</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 2,76</t>
+          <t>-2,93; 2,47</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 4,1</t>
+          <t>-1,36; 4,18</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-40,57; 6,5</t>
+          <t>-39,41; 4,45</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-34,5; 11,51</t>
+          <t>-34,33; 12,5</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 32,86</t>
+          <t>-11,38; 34,63</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 43,19</t>
+          <t>-2,03; 44,78</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 18,45</t>
+          <t>-16,55; 15,64</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 26,76</t>
+          <t>-7,53; 27,1</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -0,31</t>
+          <t>-5,08; -0,08</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,68; -5,0</t>
+          <t>-9,5; -4,85</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 4,08</t>
+          <t>-0,21; 4,29</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 2,77</t>
+          <t>-1,48; 2,87</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,35</t>
+          <t>-2,03; 1,29</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,8; -1,5</t>
+          <t>-4,93; -1,56</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,59; -0,74</t>
+          <t>-11,76; -0,21</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,23; -12,05</t>
+          <t>-21,77; -11,84</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 16,7</t>
+          <t>-0,79; 17,38</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 11,06</t>
+          <t>-5,59; 11,87</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 4,2</t>
+          <t>-5,92; 3,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-13,89; -4,52</t>
+          <t>-14,29; -4,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P23_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
